--- a/ki2va_WirL_Matrix_20171208.xlsx
+++ b/ki2va_WirL_Matrix_20171208.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roessling/Documents/Projects/gr26fabi-ki2vasle/Drafts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roessling/Documents/Projects/ki2va-sle/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="520" yWindow="440" windowWidth="28440" windowHeight="18240"/>
+    <workbookView xWindow="23280" yWindow="440" windowWidth="28440" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
@@ -27,12 +27,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Felix Broj</author>
   </authors>
   <commentList>
-    <comment ref="B7" authorId="0" shapeId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -80,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -104,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B17" authorId="0" shapeId="0">
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -128,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="0" shapeId="0">
+    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -295,7 +295,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -399,7 +399,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="22">
     <dxf>
@@ -497,30 +497,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A2:U22" totalsRowShown="0" dataDxfId="21">
-  <autoFilter ref="A2:U22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A2:U22" totalsRowShown="0" dataDxfId="21">
+  <autoFilter ref="A2:U22" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="21">
-    <tableColumn id="1" name="Fragen_ID" dataDxfId="20"/>
-    <tableColumn id="2" name="Fragen_Text" dataDxfId="19" dataCellStyle="Standard 2"/>
-    <tableColumn id="3" name="Tobias" dataDxfId="18"/>
-    <tableColumn id="4" name="Pia" dataDxfId="17"/>
-    <tableColumn id="5" name="Kübra" dataDxfId="16"/>
-    <tableColumn id="6" name="Hela" dataDxfId="15"/>
-    <tableColumn id="7" name="Stephanie" dataDxfId="14"/>
-    <tableColumn id="8" name="Frank" dataDxfId="13"/>
-    <tableColumn id="9" name="Isabell" dataDxfId="12"/>
-    <tableColumn id="10" name="Jinjin" dataDxfId="11"/>
-    <tableColumn id="11" name="Kim" dataDxfId="10"/>
-    <tableColumn id="12" name="Aaron" dataDxfId="9"/>
-    <tableColumn id="13" name="Jan" dataDxfId="8"/>
-    <tableColumn id="14" name="Sarah" dataDxfId="7"/>
-    <tableColumn id="15" name="Mercedes" dataDxfId="6"/>
-    <tableColumn id="16" name="Max" dataDxfId="5"/>
-    <tableColumn id="17" name="Ayla" dataDxfId="4"/>
-    <tableColumn id="18" name="Mira" dataDxfId="3"/>
-    <tableColumn id="19" name="Süngül" dataDxfId="2"/>
-    <tableColumn id="20" name="Arif Abdel" dataDxfId="1"/>
-    <tableColumn id="21" name="Christian" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Fragen_ID" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Fragen_Text" dataDxfId="19" dataCellStyle="Standard 2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tobias" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Pia" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Kübra" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Hela" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Stephanie" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Frank" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Isabell" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Jinjin" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Kim" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Aaron" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Jan" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Sarah" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Mercedes" dataDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Max" dataDxfId="5"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Ayla" dataDxfId="4"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Mira" dataDxfId="3"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Süngül" dataDxfId="2"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Arif Abdel" dataDxfId="1"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Christian" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -788,14 +788,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="G15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
+      <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2414,12 +2414,12 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:U22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:U22" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$3:$A$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>

--- a/ki2va_WirL_Matrix_20171208.xlsx
+++ b/ki2va_WirL_Matrix_20171208.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="23280" yWindow="440" windowWidth="28440" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7600" yWindow="8340" windowWidth="28440" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
@@ -792,10 +792,10 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
